--- a/pred_ohlcv/54_21/2020-01-19 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BCD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8603.539803749996</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8144.908903749996</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>18900.86580375</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>18900.86580375</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1561.848946739997</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5123.526446739997</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>14519.48054888</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>28853.58969167</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>32305.67214888</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>32305.67214888</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>28759.06590609</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>26760.06810609</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>27579.93180609</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>27445.83180609</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>28580.3317633</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>34794.28246433999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>43551.56943313999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>39445.08841908</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>39445.08841908</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>53771.97665988</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>53573.85525988</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>68014.40415988</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>65514.40415988</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>65448.25235988</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>66490.2180587</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>64158.18565870001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>59392.54253361001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>59385.54253361001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>58921.76473361001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>67666.66533361001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>65535.12093361001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>61973.64523361001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>61034.20523361001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>61584.57513361001</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>60701.22413361001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>62831.83643361001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>62690.81303361001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>62690.81303361001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>62584.80343361001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>65622.02153361001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>64752.52723361001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>64753.15033361001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>64485.64133361001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>66976.27093361001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>20368.83236209</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>26558.41308425001</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>26558.41308425001</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>23212.57648425001</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>23414.90328425001</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>23349.88378425001</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>23349.88378425001</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>23654.73878425001</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>23459.25858425</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>23956.90398425001</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>23956.90398425001</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>22596.06678425</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>25373.71941807</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>18792.30761807</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>29067.97871807</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>29067.97871807</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>29051.10361807</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>29834.28601807</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>29834.28601807</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-160052.9385888499</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-160172.9385888499</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-160106.9385888499</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-161446.9385888499</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-161425.9734888499</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-161645.4556888499</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-161645.4556888499</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-169476.4773888499</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-168477.9868963999</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-169201.8695963999</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-169201.8695963999</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-167864.7131963999</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-168502.4256963999</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-169227.8769963999</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-169020.5115963999</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-170835.1996963999</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-171461.4340963998</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-171461.4340963998</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-170941.4340963998</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-170941.4340963998</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-165850.6504054599</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-165850.6504054599</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-165492.7963312099</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-163486.5975312098</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-153721.5463312098</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-151325.8591312098</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-157397.1280064098</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-158517.7458064098</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-157344.8359064098</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-159656.0553064098</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-167306.8836064098</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-166298.4592064098</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-166298.4592064098</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-166408.3377064098</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-160648.8755064098</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-160648.8755064098</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-160623.6516064098</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-161417.8419064098</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-161417.8419064098</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-160377.8419064098</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-160377.8419064098</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-160317.8419064098</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-160317.8419064098</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-160337.6790064098</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-160382.0083064098</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-160382.0083064098</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BCD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8603.539803749996</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8144.908903749996</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>18900.86580375</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>18900.86580375</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1561.848946739997</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5123.526446739997</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>14519.48054888</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>28853.58969167</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>32305.67214888</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>32305.67214888</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>28759.06590609</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>26760.06810609</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>27579.93180609</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>27445.83180609</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>28580.3317633</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>34794.28246433999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>43551.56943313999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>39445.08841908</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>39445.08841908</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>59610.38165385</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>53771.97665988</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>53771.97665988</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>53573.85525988</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>68014.40415988</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>65514.40415988</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>65448.25235988</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>63457.34705988</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>66490.2180587</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>64158.18565870001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>59393.54253361001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>65586.66533361001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>67666.66533361001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>65535.12093361001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>61973.64523361001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>61034.20523361001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>61584.57513361001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>60701.22413361001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>62831.83643361001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>62690.81303361001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>62690.81303361001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>62584.80343361001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>65622.02153361001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>64752.52723361001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>64753.15033361001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>20368.83236209</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>26558.41308425001</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>26558.41308425001</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>23212.57648425001</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>23414.90328425001</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>23349.88378425001</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>23349.88378425001</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>23654.73878425001</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>23459.25858425</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>23956.90398425001</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>23956.90398425001</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>22596.06678425</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>25373.71941807</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>18792.30761807</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>29067.97871807</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>29067.97871807</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>29051.10361807</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>29834.28601807</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>29834.28601807</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>33903.50537318002</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>33913.14349438002</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>33492.52755593002</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>33754.43169438002</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>34085.89039438003</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>34085.89039438003</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>34085.89039438003</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>34085.89039438003</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>33571.89039438003</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>33316.89039438003</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>33240.89039438003</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>33240.89039438003</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-161446.9385888499</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-161425.9734888499</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-161645.4556888499</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-161645.4556888499</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-169476.4773888499</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-167864.7131963999</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-172021.4564963999</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-169020.5115963999</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-170835.1996963999</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-171461.4340963998</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-171461.4340963998</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-170941.4340963998</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-170941.4340963998</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-168390.9035963998</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-165921.5489240398</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-165921.5489240398</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-165938.1994240399</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-165739.7424240399</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-168139.4286157699</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-166565.1777157699</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-166565.1777157699</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-166844.6465054599</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-167427.9511054599</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-167300.1957054599</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-167630.8599054599</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-167891.1309054599</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-167891.1309054599</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-165850.6504054599</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-165850.6504054599</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-165981.0965312099</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-166027.5398312099</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-165492.7963312099</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-163486.5975312098</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-161114.8236312098</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-162746.9180312098</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-159633.9204312098</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-155729.7433312098</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-153721.5463312098</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-151325.8591312098</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-156314.5429617398</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-155504.9046617398</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-154456.6403617398</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-154456.6403617398</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-158517.7458064098</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-158517.7458064098</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-157344.8359064098</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-159656.0553064098</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-163888.5685064098</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-168420.8874064098</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-167055.9914064098</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-167055.9914064098</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-167054.7280064098</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-167306.8836064098</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-167306.8836064098</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-166298.4592064098</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-166298.4592064098</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-166408.3377064098</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-160648.8755064098</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-160648.8755064098</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-160623.6516064098</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-161417.8419064098</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-161417.8419064098</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-160377.8419064098</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-160377.8419064098</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-160317.8419064098</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-160317.8419064098</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-160316.4419064098</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-160315.4419064098</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-160342.8790064098</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-160342.8790064098</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-160422.8790064098</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-160337.6790064098</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-160382.0083064098</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-160382.0083064098</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
